--- a/solution.xlsx
+++ b/solution.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="44">
   <si>
     <t>规律</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -159,6 +159,34 @@
   </si>
   <si>
     <t>两个人交换一张手牌，暴力即可。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZOJ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZSTU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>递归</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟递归的情况，判断每一个位置的数是1还是0，统计前缀和，然后前缀和相减得到答案。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟矩阵密码，第一行输入为对应的列的顺序。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -352,8 +380,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:D19" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A1:D19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="B1:E21" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="B1:E21">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -364,7 +392,7 @@
     <tableColumn id="3" name="一句话题解" dataDxfId="1"/>
     <tableColumn id="4" name="时间" dataDxfId="0"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -631,285 +659,377 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="255.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.875" style="2"/>
+    <col min="1" max="1" width="8.875" style="2"/>
+    <col min="2" max="2" width="9.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="255.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="3">
         <v>1016</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2">
+      <c r="E2" s="2">
         <v>20170626</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="3">
         <v>1078</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="2">
         <v>20170626</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="3">
         <v>1037</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="2">
+      <c r="E4" s="2">
         <v>20170626</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="3">
         <v>1101</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E5" s="2">
         <v>20170626</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="3">
         <v>1024</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E6" s="2">
         <v>20170626</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="3">
         <v>1008</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="2">
+      <c r="E7" s="2">
         <v>20170626</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="3">
         <v>1091</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="2">
+      <c r="E8" s="2">
         <v>20170626</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="3">
         <v>1048</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="2">
+      <c r="E9" s="2">
         <v>20170626</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="3">
         <v>1049</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="2">
+      <c r="E10" s="2">
         <v>20170626</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="3">
         <v>1057</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="2">
+      <c r="E11" s="2">
         <v>20170626</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="3">
         <v>1808</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="2">
+      <c r="E12" s="2">
         <v>20170626</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="4">
         <v>1745</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="C13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="D13" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="5">
+      <c r="E13" s="5">
         <v>20170627</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="4">
         <v>2812</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="C14" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="D14" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="5">
+      <c r="E14" s="5">
         <v>20170627</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="4">
         <v>2173</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="C15" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="D15" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="5">
+      <c r="E15" s="5">
         <v>20170627</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="4">
         <v>2187</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="C16" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="D16" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="5">
+      <c r="E16" s="5">
         <v>20170627</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="3">
         <v>1409</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="5">
+      <c r="E17" s="5">
         <v>20170628</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="3">
         <v>1377</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="5">
+      <c r="E18" s="5">
         <v>20170628</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="4">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="4">
         <v>3023</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="C19" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="D19" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="5">
+      <c r="E19" s="5">
         <v>20170629</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="4">
+        <v>4233</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="5">
+        <v>20170629</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="4">
+        <v>2635</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="5">
+        <v>20170701</v>
       </c>
     </row>
   </sheetData>
